--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -737,28 +740,31 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
@@ -771,23 +777,26 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E17" s="3">
         <v>26800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>178900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-167200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,22 +1042,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
@@ -1034,47 +1067,53 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-166500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
@@ -1082,52 +1121,58 @@
       <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-167700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1135,28 +1180,31 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-167400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-167400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,22 +1424,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
@@ -1382,42 +1451,48 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-167400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-167400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E41" s="3">
         <v>73000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1578,69 +1667,75 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>12100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>57100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>44400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>59600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E43" s="3">
         <v>11200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E44" s="3">
         <v>6700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1650,66 +1745,75 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3700</v>
       </c>
       <c r="J45" s="3">
         <v>3700</v>
       </c>
       <c r="K45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E46" s="3">
         <v>98200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>76400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>113100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>125200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1725,49 +1829,55 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4600</v>
       </c>
       <c r="G48" s="3">
         <v>4600</v>
       </c>
       <c r="H48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1777,14 +1887,14 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>4000</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E54" s="3">
         <v>107700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>160500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>81200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>114400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>126300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,84 +2157,93 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E59" s="3">
         <v>18600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E60" s="3">
         <v>23200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E61" s="3">
         <v>33000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>32900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>32700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2111,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E66" s="3">
         <v>58200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-566200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-543000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-518300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-350900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-310600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-162800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-146000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-129500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>87000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>102200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-167400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,10 +2848,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>-200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -2662,10 +2860,13 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-16600</v>
       </c>
       <c r="K89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,11 +3080,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>21100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>66000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>27500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>53600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>23000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3139,11 +3387,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3151,36 +3399,42 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -743,31 +747,34 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,26 +787,29 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
         <v>26300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>178900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-167200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1070,53 +1104,59 @@
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-166500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1124,55 +1164,61 @@
       <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-167700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1183,28 +1229,31 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-167400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-167400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,31 +1389,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -1454,45 +1524,51 @@
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-167400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-167400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,45 +1706,49 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E41" s="3">
         <v>57600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1670,75 +1760,81 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>12100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>57100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>44400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>59600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E43" s="3">
         <v>15800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E44" s="3">
         <v>7400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1748,72 +1844,81 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3700</v>
       </c>
       <c r="K45" s="3">
         <v>3700</v>
       </c>
       <c r="L45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E46" s="3">
         <v>87300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>98200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>76400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>93400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>113100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1832,52 +1937,58 @@
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4600</v>
       </c>
       <c r="H48" s="3">
         <v>4600</v>
       </c>
       <c r="I48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1890,14 +2001,14 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>4000</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E54" s="3">
         <v>93700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>130800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>160500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>114400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>126300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2294,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E59" s="3">
         <v>16700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,52 +2341,55 @@
         <v>21500</v>
       </c>
       <c r="E60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F60" s="3">
         <v>23200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E61" s="3">
         <v>33200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>32800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2256,40 +2399,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E66" s="3">
         <v>56200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-586700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-566200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-543000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-518300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-350900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-310600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-162800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-146000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-129500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E76" s="3">
         <v>37500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>87000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>102200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>115600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-167400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,13 +3031,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -2851,10 +3050,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>-200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -2863,10 +3062,13 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-16600</v>
       </c>
       <c r="L89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,23 +3291,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>2000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>21100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>66000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>27500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E100" s="3">
         <v>8000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>53600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3390,11 +3639,11 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3402,39 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -750,34 +754,37 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,20 +809,20 @@
         <v>3500</v>
       </c>
       <c r="E10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F10" s="3">
         <v>3800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>178900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-167200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,28 +1110,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
@@ -1107,48 +1141,54 @@
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-166500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-39100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,10 +1196,10 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
@@ -1167,58 +1207,64 @@
       <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-167700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,28 +1278,31 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-167400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-167400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1479,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,28 +1564,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
@@ -1527,48 +1597,54 @@
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-167400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-167400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,51 +1793,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E41" s="3">
         <v>118500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1763,81 +1853,87 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>12100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>57100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>44400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>59600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E43" s="3">
         <v>10800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E44" s="3">
         <v>8100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1847,78 +1943,87 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3700</v>
       </c>
       <c r="L45" s="3">
         <v>3700</v>
       </c>
       <c r="M45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E46" s="3">
         <v>143100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>76400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>93400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>125200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1940,55 +2045,61 @@
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4600</v>
       </c>
       <c r="I48" s="3">
         <v>4600</v>
       </c>
       <c r="J48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2004,14 +2115,14 @@
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>4000</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E54" s="3">
         <v>149200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>130800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>160500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>81200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,66 +2357,70 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>33400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,102 +2431,111 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21500</v>
+        <v>57600</v>
       </c>
       <c r="E60" s="3">
         <v>21500</v>
       </c>
       <c r="F60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G60" s="3">
         <v>23200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>33300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>32900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2402,43 +2545,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E66" s="3">
         <v>56300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-606700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-586700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-566200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-543000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-518300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-350900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-310600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-162800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-146000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-129500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E76" s="3">
         <v>92900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-167400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3053,10 +3252,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>-200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -3065,10 +3264,13 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-16600</v>
       </c>
       <c r="M89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,26 +3512,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>2000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>21100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>66000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>27500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>73500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>53600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3642,11 +3891,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3654,42 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E102" s="3">
         <v>61000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -757,37 +761,40 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
@@ -800,32 +807,35 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="3">
         <v>3500</v>
       </c>
       <c r="F10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-167200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,31 +1144,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
@@ -1144,65 +1178,71 @@
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-166500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-39100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-22700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
@@ -1210,61 +1250,67 @@
       <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-167700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1281,28 +1327,31 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-167400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-167400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,8 +1543,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,31 +1634,34 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
@@ -1600,51 +1670,57 @@
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-167400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-167400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E41" s="3">
         <v>103400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1843,8 +1933,8 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1856,87 +1946,93 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>12100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>57100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E43" s="3">
         <v>10900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E44" s="3">
         <v>8300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1946,160 +2042,175 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3700</v>
       </c>
       <c r="M45" s="3">
         <v>3700</v>
       </c>
       <c r="N45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E46" s="3">
         <v>128400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>143100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>87300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>93400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>125200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4600</v>
       </c>
       <c r="J48" s="3">
         <v>4600</v>
       </c>
       <c r="K48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2118,14 +2229,14 @@
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>4000</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E54" s="3">
         <v>134000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>149200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>130800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>160500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>126300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,55 +2488,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>33400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2422,8 +2556,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2434,84 +2568,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E60" s="3">
         <v>57600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>21500</v>
       </c>
       <c r="F60" s="3">
         <v>21500</v>
       </c>
       <c r="G60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H60" s="3">
         <v>23200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,26 +2662,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>33300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2548,46 +2691,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E66" s="3">
         <v>59100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-606700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-586700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-566200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-543000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-518300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-350900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-310600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-162800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-146000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-129500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E76" s="3">
         <v>74900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>92900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-167400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3255,10 +3454,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>-200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3267,10 +3466,13 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-52200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-16600</v>
       </c>
       <c r="N89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,18 +3745,18 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>2000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>21100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>66000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>27500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>53600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3894,11 +4143,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3906,45 +4155,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>61000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,101 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -764,40 +767,43 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -810,35 +816,38 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3500</v>
       </c>
       <c r="F10" s="3">
         <v>3500</v>
       </c>
       <c r="G10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H10" s="3">
         <v>3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E17" s="3">
         <v>21900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>178900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-167200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
@@ -1181,71 +1214,77 @@
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-166500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-39100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-22700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
@@ -1253,69 +1292,75 @@
       <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-167700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1330,28 +1375,31 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-167400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-167400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,8 +1606,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,25 +1715,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
@@ -1673,54 +1742,60 @@
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-167400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-167400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,60 +1966,64 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E41" s="3">
         <v>52300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>73000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1949,93 +2038,99 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>12100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>57100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>44400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
         <v>10100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E44" s="3">
         <v>8100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2045,90 +2140,99 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3700</v>
       </c>
       <c r="N45" s="3">
         <v>3700</v>
       </c>
       <c r="O45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E46" s="3">
         <v>76100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>128400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>143100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>87300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>93400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>125200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2153,64 +2257,70 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4600</v>
       </c>
       <c r="K48" s="3">
         <v>4600</v>
       </c>
       <c r="L48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2232,14 +2342,14 @@
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E54" s="3">
         <v>81300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>134000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>149200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>130800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>160500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>126300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,61 +2618,65 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>33400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2559,8 +2692,8 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2571,90 +2704,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>13400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18100</v>
       </c>
-      <c r="G59" s="3">
-        <v>16700</v>
-      </c>
       <c r="H59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I59" s="3">
         <v>18600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E60" s="3">
         <v>21000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>21500</v>
       </c>
       <c r="G60" s="3">
         <v>21500</v>
       </c>
       <c r="H60" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I60" s="3">
         <v>23200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2665,26 +2807,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>33300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2694,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-639500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-628000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-606700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-586700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-566200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-543000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-518300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-350900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-310600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-162800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-146000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-129500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E76" s="3">
         <v>58900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>92900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>102200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>115600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-167400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3457,10 +3655,10 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>-200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3469,10 +3667,13 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-52200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-16600</v>
       </c>
       <c r="O89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,18 +3968,18 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3866,40 +4095,43 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>2000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>21100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>66000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>27500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>53600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4146,11 +4394,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4158,48 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-51100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4300</v>
       </c>
       <c r="G8" s="3">
         <v>4100</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
@@ -819,41 +833,47 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3500</v>
-      </c>
       <c r="H10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>11500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6300</v>
-      </c>
       <c r="H12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>12600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21900</v>
       </c>
-      <c r="F17" s="3">
-        <v>23000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>23600</v>
-      </c>
       <c r="H17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="3">
         <v>26300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>178900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>21900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>23200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-17800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-19500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-22000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-23500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-167200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-39800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-21900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-23200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-15900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-17800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-19500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-21900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-23600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-166500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-39100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-21700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-22700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-18900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-15300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,99 +1355,111 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1200</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
       <c r="J22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>1100</v>
       </c>
       <c r="M22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-20600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-167700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-40200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-21500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-23200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1378,28 +1470,34 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-20600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-24700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-167400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-40200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-21500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-20600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-24700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-167400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-40200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1690,37 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>13400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-9200</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-9700</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1609,17 +1731,23 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-167400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-40200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-21500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-19000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-167400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-40200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-21500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-19000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F41" s="3">
         <v>42300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>52300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>103400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>118500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>57600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>73000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>96500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>57600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>34200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>65100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>62000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2041,198 +2221,228 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>12100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>57100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>44400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>59600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>15800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>11200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>7300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>8100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8300</v>
       </c>
       <c r="G44" s="3">
         <v>8100</v>
       </c>
       <c r="H44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J44" s="3">
         <v>7400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>6700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>29300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F46" s="3">
         <v>63200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>76100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>128400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>143100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>87300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>98200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>119300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>98400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>76400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>93400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>113100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>125200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2260,102 +2470,114 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>4000</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>53500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F54" s="3">
         <v>67000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>81300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>134000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>149200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>93700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>107700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>130800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>160500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>81200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>96600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>114400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>126300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,70 +2879,78 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>19400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>33400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2695,11 +2963,11 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,96 +2975,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>42500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>16900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F60" s="3">
         <v>18400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>57600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>56600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>29300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,81 +3096,93 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>33300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>33200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>33000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>32900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>32800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>32700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1400</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1400</v>
       </c>
       <c r="H62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F66" s="3">
         <v>18400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>59100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>56300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>56200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>58200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>59300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>91000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>63600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-643300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-634900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-639500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-628000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-606700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-586700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-566200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-543000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-518300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-350900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-310600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-162800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-146000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-129500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F76" s="3">
         <v>48600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>58900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>74900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>92900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>71500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>69500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>87000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>102200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>115600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-167400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-40200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-21500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-19000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3658,22 +4056,28 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-25400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-23600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-35900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-52200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-19300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-12700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,22 +4394,24 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3978,14 +4420,14 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4555,49 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>16700</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>21100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>66000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>5500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>15400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>27500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,57 +4810,69 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-33600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>73500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>53600</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>53600</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>23000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4397,63 +4895,75 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-51100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>61000</v>
       </c>
       <c r="H102" s="3">
         <v>-15400</v>
       </c>
       <c r="I102" s="3">
+        <v>61000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>38900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-31400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>12400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -784,13 +788,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,33 +807,33 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,33 +860,33 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>178900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-167200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,17 +1279,18 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1264,25 +1298,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
       </c>
       <c r="O20" s="3">
         <v>400</v>
@@ -1291,63 +1325,69 @@
         <v>400</v>
       </c>
       <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-166500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-39100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-21700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-22700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1361,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>3500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1100</v>
       </c>
       <c r="L22" s="3">
         <v>1100</v>
@@ -1381,73 +1421,79 @@
       <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-167700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,11 +1504,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1476,28 +1522,31 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-167400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-167400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,25 +1766,25 @@
         <v>-200</v>
       </c>
       <c r="E29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F29" s="3">
         <v>13400</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-9200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-9700</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1737,8 +1798,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,17 +1913,20 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1864,25 +1934,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
       </c>
       <c r="O32" s="3">
         <v>-400</v>
@@ -1891,63 +1961,69 @@
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-167400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-167400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E41" s="3">
         <v>42800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>103400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>62000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2227,72 +2317,78 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>12100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>57100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>59600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,36 +2398,36 @@
       <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>7300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3700</v>
       </c>
       <c r="Q45" s="3">
         <v>3700</v>
       </c>
       <c r="R45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E46" s="3">
         <v>51900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>76100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>128400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>143100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>93400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>113100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>125200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2476,73 +2581,79 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4600</v>
       </c>
       <c r="N48" s="3">
         <v>4600</v>
       </c>
       <c r="O48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2567,20 +2678,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>4000</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E54" s="3">
         <v>55200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>81300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>134000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>149200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>93700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>130800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>160500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>126300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2945,15 +3079,15 @@
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>33400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2969,8 +3103,8 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,58 +3115,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,49 +3180,52 @@
         <v>6800</v>
       </c>
       <c r="E60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3102,26 +3245,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>33300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,47 +3288,50 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,49 +3498,52 @@
         <v>6800</v>
       </c>
       <c r="E66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-652800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-643300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-634900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-639500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-628000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-606700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-586700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-566200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-543000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-518300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-350900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-310600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-162800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-146000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-129500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E76" s="3">
         <v>48400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>92900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>102200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-167400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4224,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4050,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4062,10 +4261,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>-200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4074,10 +4273,13 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-10000</v>
       </c>
       <c r="F89" s="3">
         <v>-10000</v>
       </c>
       <c r="G89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-52200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-16600</v>
       </c>
       <c r="R89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4426,11 +4647,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>16700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>21100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>66000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>15400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>27500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,66 +5059,72 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-33600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>53600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4901,11 +5150,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4913,57 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,36 +823,36 @@
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -849,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,36 +882,36 @@
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>13100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>12500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>12600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J17" s="3">
         <v>21900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>26300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>178900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>41600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>23200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>19400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>16200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-17800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-22000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-23500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-167200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-39800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-21900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-15900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,22 +1345,24 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1307,92 +1374,104 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>400</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-17800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-21900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-23600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-166500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-39100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-21700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-18900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-15300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1404,96 +1483,108 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1200</v>
       </c>
       <c r="L22" s="3">
         <v>1100</v>
       </c>
       <c r="M22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>1100</v>
       </c>
       <c r="P22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-21300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-24700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-167700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-40200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-21500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-15400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1507,14 +1598,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1525,28 +1616,34 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-21300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-24700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-167400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-21500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-15200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-21300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-24700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-167400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-40200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-21500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-15200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,40 +1872,46 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>13400</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-9700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1801,17 +1922,23 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,22 +2049,28 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1943,87 +2082,99 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-400</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-21300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-19900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-24700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-167400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-21500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-19000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-15200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-21300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-19900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-24700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-167400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-21500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-19000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-15200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F41" s="3">
         <v>35500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>50500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>42300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>52300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>103400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>118500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>57600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>73000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>96500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>57600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>34200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>65100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>62000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2320,75 +2499,87 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>12100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>57100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>44400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>59600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5500</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F43" s="3">
         <v>5500</v>
       </c>
       <c r="G43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>10100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>15800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2401,153 +2592,171 @@
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>7300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8300</v>
       </c>
       <c r="J44" s="3">
         <v>8100</v>
       </c>
       <c r="K44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M44" s="3">
         <v>7400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>29300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F46" s="3">
         <v>44000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>51900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>60700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>63200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>76100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>128400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>143100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>87300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>98200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>119300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>98400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>76400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>93400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>113100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>125200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2584,76 +2793,88 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2681,23 +2902,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>4000</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>53500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F54" s="3">
         <v>46900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>55200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>64300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>67000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>81300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>134000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>149200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>93700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>107700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>130800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>160500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>81200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>96600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>114400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>126300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>14100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>19400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3082,18 +3349,18 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>33400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3106,11 +3373,11 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,114 +3385,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>42500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>16900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>57600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>24200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>56600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>29300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3248,42 +3533,48 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>33300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>33200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>33000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>32900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>32800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>32700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>1300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -3291,47 +3582,53 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1400</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
       </c>
       <c r="K62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>59100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>56300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>56200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>58200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>59300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>91000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>63600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3678,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-668500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-662700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-652800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-643300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-634900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-639500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-628000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-606700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-586700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-566200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-543000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-518300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-350900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-310600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-162800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-146000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-129500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F76" s="3">
         <v>40100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>48400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>55700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>48600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>58900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>74900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>92900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>37500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>49500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>71500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>69500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>87000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>102200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>115600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-21300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-19900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-24700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-167400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-21500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-19000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-15200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,20 +4620,22 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4246,16 +4643,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4264,22 +4661,28 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-10000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-10000</v>
+        <v>-9200</v>
       </c>
       <c r="H89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-17500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-16300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-25400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-23600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-35900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-52200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-16400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-16600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4641,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4650,14 +5091,14 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,25 +5229,31 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>16700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>1000</v>
@@ -4803,34 +5262,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>21100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>66000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>15400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>27500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-33600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>73500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>8000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>53600</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>53600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-23000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>23000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5126,11 +5623,11 @@
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5153,72 +5650,84 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-51100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>61000</v>
       </c>
       <c r="K102" s="3">
         <v>-15400</v>
       </c>
       <c r="L102" s="3">
+        <v>61000</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="N102" s="3">
         <v>-23600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>38900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-31400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>12400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,44 +763,44 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -804,13 +808,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,33 +836,33 @@
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,33 +898,33 @@
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>178900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-167200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-23200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,43 +1390,43 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
       </c>
       <c r="R20" s="3">
         <v>400</v>
@@ -1401,80 +1435,86 @@
         <v>400</v>
       </c>
       <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-38900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-166500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-21700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-22700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1486,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1100</v>
       </c>
       <c r="L22" s="3">
         <v>1100</v>
       </c>
       <c r="M22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N22" s="3">
         <v>1200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1100</v>
       </c>
       <c r="O22" s="3">
         <v>1100</v>
@@ -1509,82 +1549,88 @@
       <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="Q22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-167700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1604,11 +1650,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1622,28 +1668,31 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-44200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-167400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-44200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-167400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1887,34 +1948,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-200</v>
       </c>
       <c r="G29" s="3">
         <v>-200</v>
       </c>
       <c r="H29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I29" s="3">
         <v>13400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-29100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-9200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-9700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1928,8 +1989,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,43 +2134,43 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
       </c>
       <c r="R32" s="3">
         <v>-400</v>
@@ -2109,72 +2179,78 @@
         <v>-400</v>
       </c>
       <c r="T32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-73300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-167400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-73300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-167400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E41" s="3">
         <v>30200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>103400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>73000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>62000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2505,81 +2595,87 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>12100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>57100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>44400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>59600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2598,36 +2694,36 @@
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
         <v>7300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>3700</v>
       </c>
       <c r="T45" s="3">
         <v>3700</v>
       </c>
       <c r="U45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>128400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>98400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>76400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>93400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>113100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>125200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2799,82 +2904,88 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4600</v>
       </c>
       <c r="Q48" s="3">
         <v>4600</v>
       </c>
       <c r="R48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2908,20 +3019,20 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4000</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>53500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E54" s="3">
         <v>35300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>130800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>81200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,97 +3403,101 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>33400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,126 +3525,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6800</v>
       </c>
       <c r="G60" s="3">
         <v>6800</v>
       </c>
       <c r="H60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3539,26 +3682,26 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>33300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,16 +3711,19 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+      <c r="E62" s="3">
+        <v>1300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
@@ -3588,47 +3734,50 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6800</v>
       </c>
       <c r="G66" s="3">
         <v>6800</v>
       </c>
       <c r="H66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4013,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>200</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-678600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-668500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-662700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-652800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-643300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-634900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-639500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-628000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-606700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-586700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-566200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-543000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-518300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-350900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-310600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-162800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-146000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-129500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E76" s="3">
         <v>26400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>92900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>102200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>115600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-73300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-167400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,23 +4830,23 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4655,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4667,10 +4866,10 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>-200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -4679,10 +4878,13 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-56400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-16600</v>
       </c>
       <c r="U89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5085,7 +5306,7 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5097,11 +5318,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>16700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>2000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>21100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>66000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>15400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>27500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,81 +5796,87 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>39800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>53600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5656,11 +5905,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5668,66 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-20700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>VYNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,44 +770,44 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -811,13 +815,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,33 +846,33 @@
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,33 +911,33 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>7200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E17" s="3">
         <v>10500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>178900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-167200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-23200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-15900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,55 +1414,56 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>400</v>
       </c>
       <c r="S20" s="3">
         <v>400</v>
@@ -1438,86 +1472,92 @@
         <v>400</v>
       </c>
       <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-21900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-39100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-21700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-22700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1529,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1100</v>
       </c>
       <c r="M22" s="3">
         <v>1100</v>
       </c>
       <c r="N22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O22" s="3">
         <v>1200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1100</v>
       </c>
       <c r="P22" s="3">
         <v>1100</v>
@@ -1552,85 +1592,91 @@
       <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="R22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-44700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-24700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-167700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-40200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-21500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-23200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1653,11 +1699,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1671,28 +1717,31 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-44200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-167400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-44200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-167400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-40200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-23200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,46 +1997,49 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-200</v>
       </c>
       <c r="H29" s="3">
         <v>-200</v>
       </c>
       <c r="I29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J29" s="3">
         <v>13400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-29100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-9200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-9700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1992,8 +2053,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,55 +2192,58 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-400</v>
       </c>
       <c r="S32" s="3">
         <v>-400</v>
@@ -2182,75 +2252,81 @@
         <v>-400</v>
       </c>
       <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-73300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-167400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-40200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-73300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-167400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-40200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
         <v>20600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>103400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>118500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>73000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>96500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>62000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,84 +2688,90 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>12100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>57100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>44400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>59600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2697,36 +2793,36 @@
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>7300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2736,132 +2832,141 @@
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>3700</v>
       </c>
       <c r="U45" s="3">
         <v>3700</v>
       </c>
       <c r="V45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E46" s="3">
         <v>23000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>128400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>143100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>98200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>98400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>76400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>93400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>113100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>125200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2907,23 +3012,26 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,59 +3041,62 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4600</v>
       </c>
       <c r="R48" s="3">
         <v>4600</v>
       </c>
       <c r="S48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3022,20 +3133,20 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>4000</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E54" s="3">
         <v>25000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>149200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>107700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>130800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>160500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>81200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>126300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3496,11 +3630,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>33400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3516,8 +3650,8 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3528,70 +3662,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3599,61 +3739,64 @@
         <v>6400</v>
       </c>
       <c r="E60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6800</v>
       </c>
       <c r="H60" s="3">
         <v>6800</v>
       </c>
       <c r="I60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3685,26 +3828,26 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>33300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,8 +3871,8 @@
       <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>1300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -3737,47 +3883,50 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>6800</v>
       </c>
       <c r="H66" s="3">
         <v>6800</v>
       </c>
       <c r="I66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4184,11 +4352,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-685100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-678600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-668500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-662700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-652800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-643300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-634900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-639500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-628000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-606700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-586700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-566200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-543000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-518300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-350900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-310600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-162800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-146000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-129500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-110600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E76" s="3">
         <v>17300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>92900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>102200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>115600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>130400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-73300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-167400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-40200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4833,23 +5032,23 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4857,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4869,10 +5068,10 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>-200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -4881,10 +5080,13 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-56400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-52200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12700</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-16600</v>
       </c>
       <c r="V89" s="3">
         <v>-16600</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5309,7 +5530,7 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5321,11 +5542,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,61 +5704,64 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>16700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>2000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>21100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>66000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>15400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>27500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,61 +6054,64 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>39800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>53600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>23000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5908,11 +6157,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5920,69 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-20700</v>
       </c>
     </row>
